--- a/artfynd/A 2451-2024 artfynd.xlsx
+++ b/artfynd/A 2451-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130816702</v>
       </c>
       <c r="B2" t="n">
-        <v>78997</v>
+        <v>79001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>130816570</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>130816674</v>
       </c>
       <c r="B4" t="n">
-        <v>92102</v>
+        <v>92106</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>130816854</v>
       </c>
       <c r="B5" t="n">
-        <v>93091</v>
+        <v>93095</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>130816807</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>130816672</v>
       </c>
       <c r="B7" t="n">
-        <v>92102</v>
+        <v>92106</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>130816671</v>
       </c>
       <c r="B8" t="n">
-        <v>92102</v>
+        <v>92106</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 2451-2024 artfynd.xlsx
+++ b/artfynd/A 2451-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130816702</v>
       </c>
       <c r="B2" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>130816570</v>
       </c>
       <c r="B3" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>130816674</v>
       </c>
       <c r="B4" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>130816854</v>
       </c>
       <c r="B5" t="n">
-        <v>93095</v>
+        <v>93096</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>130816807</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>130816672</v>
       </c>
       <c r="B7" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>130816671</v>
       </c>
       <c r="B8" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
